--- a/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
+++ b/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B926B5AF-9852-4F20-A6DD-2DD90B7CB475}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A691842-2C51-488C-844E-B8E15839EB5A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>样本码流文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>SCTV_GSA_AIT_431_13Dec.ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample-EPG_hdsd_mux.ts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +455,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,12 +605,20 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43427</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="4">
+        <v>20297</v>
+      </c>
+      <c r="G8" s="2">
+        <v>19</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
+++ b/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A691842-2C51-488C-844E-B8E15839EB5A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8C241-34F8-4415-A0CF-FC37A37310B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>样本码流文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,11 +78,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCTV_GSA_AIT_431_13Dec.ts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sample-EPG_hdsd_mux.ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确诊，跟PCR多、绘制PCR散点图速度慢有很大关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无PCR，没有绘图，速度就很快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,10 +172,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -512,7 +514,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -528,7 +532,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,7 +554,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,7 +576,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -584,7 +594,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -604,9 +616,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
         <v>43427</v>
@@ -622,108 +636,202 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43434</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="4">
+        <v>148796</v>
+      </c>
+      <c r="G9" s="2">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43434</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>21250</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43434</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="4">
+        <v>155469</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43434</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4">
+        <v>4171</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7">
-        <v>43422</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8">
-        <v>474516</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3">
+        <v>43434</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="4">
+        <v>17797</v>
+      </c>
+      <c r="G13" s="2">
+        <v>19</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43435</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="4">
+        <v>116344</v>
+      </c>
+      <c r="G14" s="2">
+        <v>41</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43435</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="4">
+        <v>1859265</v>
+      </c>
+      <c r="G15" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43435</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="4">
+        <v>11547</v>
+      </c>
+      <c r="G16" s="2">
+        <v>19</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43435</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4">
+        <v>2921</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43434</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <v>15484</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
@@ -837,6 +945,96 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
+++ b/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8C241-34F8-4415-A0CF-FC37A37310B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D288415-F8CB-4EB1-88DF-88912ACABA27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$32</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>样本码流文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +91,9 @@
   <si>
     <t>无PCR，没有绘图，速度就很快</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhupindian.ts</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -740,19 +746,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>43435</v>
+        <v>43434</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="4">
-        <v>116344</v>
-      </c>
-      <c r="G14" s="2">
-        <v>41</v>
-      </c>
+        <v>15484</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>43435</v>
@@ -768,21 +772,19 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="4">
-        <v>1859265</v>
+        <v>116344</v>
       </c>
       <c r="G15" s="2">
-        <v>40</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3">
         <v>43435</v>
@@ -790,19 +792,19 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="4">
-        <v>11547</v>
-      </c>
-      <c r="G16" s="2">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>2921</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3">
         <v>43435</v>
@@ -810,11 +812,13 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="4">
-        <v>2921</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>1859265</v>
+      </c>
+      <c r="G17" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,167 +826,327 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>43434</v>
+        <v>43435</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="4">
-        <v>15484</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>11547</v>
+      </c>
+      <c r="G18" s="2">
+        <v>19</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43441</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="4">
+        <v>57765</v>
+      </c>
+      <c r="G19" s="2">
+        <v>64</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43441</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>15531</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43441</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="4">
+        <v>60875</v>
+      </c>
+      <c r="G21" s="2">
+        <v>41</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43441</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="F22" s="4">
+        <v>1084484</v>
+      </c>
+      <c r="G22" s="2">
+        <v>104</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43441</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <v>2672</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43441</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="F24" s="4">
+        <v>227750</v>
+      </c>
+      <c r="G24" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43441</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="4">
+        <v>12156</v>
+      </c>
+      <c r="G25" s="2">
+        <v>19</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43442</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="F26" s="4">
+        <v>35828</v>
+      </c>
+      <c r="G26" s="2">
+        <v>64</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43442</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4">
+        <v>11625</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43442</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="F28" s="4">
+        <v>39203</v>
+      </c>
+      <c r="G28" s="2">
+        <v>41</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>43442</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="F29" s="4">
+        <v>67078</v>
+      </c>
+      <c r="G29" s="2">
+        <v>104</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="2">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43442</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>2563</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="2">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>43442</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="F31" s="4">
+        <v>36500</v>
+      </c>
+      <c r="G31" s="2">
+        <v>40</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="2">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43442</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="4">
+        <v>9641</v>
+      </c>
+      <c r="G32" s="2">
+        <v>19</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="2">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3">
+        <v>43442</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="4">
+        <v>382984</v>
+      </c>
+      <c r="G33" s="2">
+        <v>41</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,7 +1199,158 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H32" xr:uid="{518015E3-7774-4794-80BF-832819A1E03B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
+++ b/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D288415-F8CB-4EB1-88DF-88912ACABA27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF6E53-4149-4E96-AA72-67A894DD6EE0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>样本码流文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1150,83 +1150,167 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="2">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43449</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="F34" s="4">
+        <v>37547</v>
+      </c>
+      <c r="G34" s="2">
+        <v>64</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="2">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43449</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>12813</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43449</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="F36" s="4">
+        <v>39531</v>
+      </c>
+      <c r="G36" s="2">
+        <v>41</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="2">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43449</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="F37" s="4">
+        <v>78797</v>
+      </c>
+      <c r="G37" s="2">
+        <v>104</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43449</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <v>2609</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="2">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43449</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="F39" s="4">
+        <v>41640</v>
+      </c>
+      <c r="G39" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="2">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43449</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="4">
+        <v>9516</v>
+      </c>
+      <c r="G40" s="2">
+        <v>19</v>
+      </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="2">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="3">
+        <v>43449</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="4">
+        <v>400812</v>
+      </c>
+      <c r="G41" s="2">
+        <v>41</v>
+      </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,6 +1433,86 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H32" xr:uid="{518015E3-7774-4794-80BF-832819A1E03B}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
+++ b/doc/EverStationII v4.51性能评估记录-2018111800.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF6E53-4149-4E96-AA72-67A894DD6EE0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59839438-99DF-4C93-A85F-D9BCD05ABDBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
   <si>
     <t>样本码流文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>zhupindian.ts</t>
+  </si>
+  <si>
+    <t>采用Dixon和去除极值两种方法计算码率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用去除极值两种方法计算码率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -164,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +186,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1314,164 +1323,348 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="2">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43463</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="F42" s="4">
+        <v>59594</v>
+      </c>
+      <c r="G42" s="2">
+        <v>64</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="2">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>43463</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4">
+        <v>17375</v>
+      </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43463</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="F44" s="4">
+        <v>76000</v>
+      </c>
+      <c r="G44" s="2">
+        <v>41</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="2">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>43463</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="F45" s="4">
+        <v>108890</v>
+      </c>
+      <c r="G45" s="2">
+        <v>104</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="2">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43463</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4">
+        <v>3625</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="2">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43463</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="F47" s="4">
+        <v>54484</v>
+      </c>
+      <c r="G47" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="2">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43463</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="F48" s="4">
+        <v>14281</v>
+      </c>
+      <c r="G48" s="2">
+        <v>19</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="2">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43463</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="F49" s="4">
+        <v>617094</v>
+      </c>
+      <c r="G49" s="2">
+        <v>41</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="2">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43463</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="F50" s="4">
+        <v>53578</v>
+      </c>
+      <c r="G50" s="2">
+        <v>64</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="2">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>43463</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="4">
+        <v>15343</v>
+      </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="2">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43463</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="F52" s="4">
+        <v>61859</v>
+      </c>
+      <c r="G52" s="2">
+        <v>41</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="2">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43463</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="F53" s="4">
+        <v>78453</v>
+      </c>
+      <c r="G53" s="2">
+        <v>104</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="2">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43463</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4">
+        <v>3750</v>
+      </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="2">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43463</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="F55" s="4">
+        <v>53094</v>
+      </c>
+      <c r="G55" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="2">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3">
+        <v>43463</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="F56" s="4">
+        <v>16734</v>
+      </c>
+      <c r="G56" s="2">
+        <v>19</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="2">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="3">
+        <v>43463</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="F57" s="4">
+        <v>610875</v>
+      </c>
+      <c r="G57" s="2">
+        <v>41</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -1513,6 +1706,166 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H32" xr:uid="{518015E3-7774-4794-80BF-832819A1E03B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
